--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\VimanNagar\May 21\SeleniumBasicsRevision\data\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -38,15 +38,9 @@
     <t>username1</t>
   </si>
   <si>
-    <t>username2</t>
-  </si>
-  <si>
     <t>username3</t>
   </si>
   <si>
-    <t>username4</t>
-  </si>
-  <si>
     <t>username5</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>password3</t>
   </si>
   <si>
-    <t>password4</t>
-  </si>
-  <si>
     <t>password6</t>
   </si>
   <si>
@@ -141,13 +132,18 @@
   </si>
   <si>
     <t>writingtest</t>
+  </si>
+  <si>
+    <t>Firstname text</t>
+  </si>
+  <si>
+    <t>Lastname text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,173 +458,173 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6665656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0">
-        <v>6665656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
